--- a/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件.xlsx
+++ b/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="类文件" sheetId="5" r:id="rId1"/>
     <sheet name="自定义变量" sheetId="6" r:id="rId2"/>
-    <sheet name="类型转换" sheetId="8" r:id="rId3"/>
-    <sheet name="系统变量" sheetId="7" r:id="rId4"/>
+    <sheet name="系统变量" sheetId="7" r:id="rId3"/>
+    <sheet name="类型转换" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -309,6 +309,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+针对动态列的连接字符</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -327,9 +351,59 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1固定值，2动态值。动态值表示会循环数据表的列进行拼接；固定值则不会</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>作者:
+格式：#键名#</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+注：该页签只提供系统已有的参数，可在【类文件】、【自定义变量中引用】</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
           <t>作者:</t>
         </r>
         <r>
@@ -337,11 +411,82 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-如果不定义，默认都为字段的类型都为String</t>
+部分不需要变量内容，请保持为空值。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+大驼峰式命名法（upper camel case）： 每一个单字的首字母都采用大写字母，例如：MyName</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+大驼峰式命名法（upper camel case）： 每一个单字的首字母都采用大写字母，例如：MyName</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+小驼峰式命名法（lower camel case）： 第一个单词以小写字母开始；第二个单词的首字母大写，例如：myName</t>
         </r>
       </text>
     </comment>
@@ -363,6 +508,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -372,61 +518,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1固定值，2动态值。动态值表示会循环数据表的列进行拼接；固定值则不会</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:
-格式：#键名#</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-注：该页签只提供系统已有的参数，可在【类文件】、【自定义变量中引用】</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-部分不需要变量内容，请保持为空值。</t>
+如果不定义，默认都为字段的类型都为String</t>
         </r>
       </text>
     </comment>
@@ -435,7 +531,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="194">
   <si>
     <t>后缀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,26 +645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实体名，首字母大写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体名，首字母大写，但第一个字母小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实名中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名，首字母大写，但第一个字母小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,52 +657,701 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名，首字母大写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>示例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.xxx.xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DbCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列名，我们一般使用下横线分隔单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ly-张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import java.util.Map;
+import org.apache.ibatis.annotations.Mapper;
+import org.apache.ibatis.annotations.Param;
+import com.baomidou.mybatisplus.core.mapper.BaseMapper;
+import com.szlanyou.vehicle.pms.south.infrastructure.entity.#ENT_NAME#;
+/**
+ * &lt;p&gt;
+ * #ENT_NAME_CN# Mapper 接口
+ * &lt;/p&gt;
+ *
+ * @author #AUTHOR_DEV#
+ * @since #DATE_NOW#
+ */
+@Mapper
+public interface #ENT_NAME#Mapper extends BaseMapper&lt;#ENT_NAME#&gt; {
+ List&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(@Param("param")Map&lt;String, Object&gt; map);
+ int ven#ENT_NAME#Save(@Param("param")#ENT_NAME# param);
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import java.util.ArrayList;
+import java.util.List;
+import javax.validation.Valid;
+public class #ENT_NAME#SaveRequest {
+    @Valid
+    private List&lt;#ENT_NAME#Save&gt; saveObj= new ArrayList&lt;&gt;();
+    public List&lt;#ENT_NAME#Save&gt; getSaveObj() {
+        return saveObj;
+    }
+    public void setSaveObj(List&lt;#ENT_NAME#Save&gt; saveObj) {
+        this.saveObj = saveObj;
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import java.util.ArrayList;
+import java.util.List;
+import javax.validation.Valid;
+public class #ENT_NAME#SaveLocalIn {
+    @Valid
+    private List&lt;#ENT_NAME#SaveLocal&gt; saveObj = new ArrayList&lt;&gt;();
+    public List&lt;#ENT_NAME#SaveLocal&gt; getSaveObj() {
+        return saveObj;
+    }
+    public void setSaveObj(List&lt;#ENT_NAME#SaveLocal&gt; saveObj) {
+        this.saveObj = saveObj;
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#QueryLocalIn;
+import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#SaveLocalIn;
+import com.szlanyou.busicen.vehicle.pms.north.message.local.out.#ENT_NAME#LocalOut;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+public interface #ENT_NAME#Clients {
+ ListResult&lt;#ENT_NAME#LocalOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryLocalIn dataInfo);
+ OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveLocalIn dataInfo);
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">package #PACK_PATH#;
+import java.util.ArrayList;
+import java.util.List;
+import javax.validation.Valid;
+public class #ENT_NAME#SaveDomainIn {
+    @Valid
+    private List&lt;#ENT_NAME#SaveDomain&gt; saveObj= new ArrayList&lt;&gt;();
+    public List&lt;#ENT_NAME#SaveDomain&gt; getSaveObj() {
+        return saveObj;
+    }
+    public void setSaveObj(List&lt;#ENT_NAME#SaveDomain&gt; saveObj) {
+        this.saveObj = saveObj;
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PACK_MB_ENT#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PACK_QRY_DM_OUT#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PACK_MB_MAP#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.stereotype.Component;
+import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#QueryLocalIn;
+import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#SaveLocalIn;
+import com.szlanyou.busicen.vehicle.pms.north.message.local.out.#ENT_NAME#LocalOut;
+import com.szlanyou.busicen.vehicle.pms.south.port.clients.#ENT_NAME#Clients;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+@Component
+public class #ENT_NAME#Adapter implements #ENT_NAME#Clients {
+ @Autowired
+ FeignPmsAdapter feignPmsAdapter;
+ @Override
+ public ListResult&lt;#ENT_NAME#LocalOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryLocalIn dataInfo) {
+  ListResult&lt;#ENT_NAME#LocalOut&gt; result = feignPmsAdapter.ven#ENT_NAME#Query(dataInfo);
+  return result;
+ }
+ @Override
+ public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveLocalIn dataInfo) {
+  return feignPmsAdapter.ven#ENT_NAME#Save(dataInfo);
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发语言类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.pms.north.message.query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen\vehicle\pms\north\message\query\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen\vehicle\pms\north\message\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen\vehicle\pms\north\message\dto\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen\vehicle\pms\north\message\local\in\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen\vehicle\pms\north\message\local\in\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen\vehicle\pms\north\message\local\out\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen\vehicle\pms\north\local\appservice\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen\vehicle\pms\south\port\clients\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen\vehicle\pms\south\adapter\clients\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle\pms\north\local\appservices\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle\pms\north\message\dto\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle\pms\north\message\query\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle\pms\north\message\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle\pms\south\adapter\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle\pms\south\infrastructure\entity\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle\pms\south\infrastructure\mapper\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle\pms\south\port\repositories\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources\mybatis\mapper\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.pms.north.message.query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.pms.north.message.query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.pms.north.message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.pms.north.message.dto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.pms.north.message.local.in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.pms.north.message.local.out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\src\main\java\com\szlanyou\busicen\vehicle\pms\north\remote\controller\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.pms.north.remote.controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.pms.north.local.appservice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.pms.south.port.clients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.pms.south.adapter.clients</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.pms.north.local.appservices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.pms.north.message.dto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.pms.north.message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.pms.north.message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle\pms\north\remote\controller\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.pms.north.remote.controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.pms.south.infrastructure.entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.pms.south.infrastructure.mapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.pms.south.port.repositories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>包名键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_SAVE_IN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import java.io.Serializable;
+import javax.validation.constraints.NotBlank;
+import io.swagger.annotations.ApiModelProperty;
+public class #ENT_NAME#Qry implements Serializable {
+ #COL_QUERY_IN#
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import java.io.Serializable;
+import javax.validation.constraints.NotBlank;
+import com.szlanyou.youcloud.core.model.PageInfo;
+import io.swagger.annotations.ApiModelProperty;
+public class #ENT_NAME#Save extends PageInfo implements Serializable {
+ private static final long serialVersionUID = 1L;
+ #COL_SAVE_IN#
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_QUERY_OUT#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import io.swagger.annotations.ApiModelProperty;
+public class #ENT_NAME#Dto {
+ #COL_QUERY_OUT#
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import java.io.Serializable;
+import javax.validation.constraints.NotBlank;
+import com.szlanyou.youcloud.core.model.PageInfo;
+import io.swagger.annotations.ApiModelProperty;
+public class #ENT_NAME#QueryLocalIn extends PageInfo implements Serializable {
+ private static final long serialVersionUID = 1L;
+ #COL_QUERY_IN#
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import io.swagger.annotations.ApiModelProperty;
+public class #ENT_NAME#LocalOut { 
+ #COL_QUERY_OUT#
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import java.io.Serializable;
+import javax.validation.constraints.NotBlank;
+import com.szlanyou.youcloud.core.model.PageInfo;
+import io.swagger.annotations.ApiModelProperty;
+public class #ENT_NAME#SaveLocal extends PageInfo implements Serializable {
+ private static final long serialVersionUID = 1L;
+ #COL_SAVE_IN#
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import java.io.Serializable;
+import javax.validation.constraints.NotBlank;
+import com.szlanyou.youcloud.core.model.PageInfo;
+import io.swagger.annotations.ApiModelProperty;
+public class #ENT_NAME#QueryDomainIn extends PageInfo implements Serializable {
+ #COL_QUERY_IN#
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import io.swagger.annotations.ApiModelProperty;
+public class #ENT_NAME#QueryDomainOut {
+ #COL_QUERY_OUT#
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import java.io.Serializable;
+import javax.validation.constraints.NotBlank;
+import io.swagger.annotations.ApiModelProperty;
+public class #ENT_NAME#SaveDomain implements Serializable {
+ private static final long serialVersionUID = 1L;
+ #COL_SAVE_IN#
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">package #PACK_PATH#;
+import java.io.Serializable;
+import javax.validation.constraints.NotBlank;
+import io.swagger.annotations.ApiModelProperty;
+public class #ENT_NAME#Save implements Serializable {
+ private static final long serialVersionUID = 1L;
+ #COL_SAVE_IN#
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mybatis实体关系定义中的列注解。针对主键列，会将@TableField替换为@TableId。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mybatis中的配置文件中resultMap定义。针对主键列，会将&lt;result替换为&lt;id。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询结果用到的字段API说明，用于创建查询结果实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存用到的字段API说明，用于创建保存入参实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用到的字段API说明，用于创建查询入参实体。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变化类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#AUTHOR_DEV#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_MAP_NODE#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;!DOCTYPE mapper PUBLIC "-//mybatis.org//DTD Mapper 3.0//EN" "http://mybatis.org/dtd/mybatis-3-mapper.dtd"&gt;
+&lt;mapper namespace="#PACK_MB_MAP#"&gt;
+    &lt;!-- 通用查询映射结果 --&gt;
+    &lt;resultMap id="BaseResultMap" type="#PACK_MB_ENT#"&gt;
+        #COL_MAP_NODE#
+    &lt;/resultMap&gt;
+    &lt;!-- 通用查询结果列 --&gt;
+    &lt;sql id="Base_Column_List"&gt;
+       #COL_DB_NAME_ALL#
+    &lt;/sql&gt;
+    &lt;select id="ven#ENT_NAME#Query" resultType="#PACK_QRY_DM_OUT#"&gt;
+    &lt;/select&gt;
+    &lt;insert id="ven#ENT_NAME#Save"&gt;
+    &lt;/insert&gt;
+    &lt;update id="ven#ENT_NAME#Update"&gt;
+    &lt;/update&gt;
+&lt;/mapper&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_ENT_NOTE#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">package #PACK_PATH#;
+import java.io.Serializable;
+import java.time.LocalDateTime;
+import com.baomidou.mybatisplus.annotation.TableField;
+import com.baomidou.mybatisplus.annotation.TableId;
+import com.baomidou.mybatisplus.annotation.TableName;
+import io.swagger.annotations.ApiModel;
+import io.swagger.annotations.ApiModelProperty;
+/**
+ * &lt;p&gt;
+ * #ENT_NAME#实体对象
+ * &lt;/p&gt;
+ *
+ * @author #AUTHOR_DEV#
+ * @since #DATE_NOW#
+ */
+@TableName("#TABLE_DB_NAME#")
+@ApiModel(value = "#ENT_NAME#对象", description = "#ENT_NAME_CN#")
+public class #ENT_NAME# implements Serializable {
+    private static final long serialVersionUID = 1L;
+    #COL_ENT_NOTE#
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">package #PACK_PATH#;
+import java.util.ArrayList;
+import java.util.List;
+import javax.validation.Valid;
+public class #ENT_NAME#SaveRequest {
+    @Valid
+    private List&lt;#ENT_NAME#Save&gt; saveObj= new ArrayList&lt;&gt;();
+    public List&lt;#ENT_NAME#Save&gt; getSaveObj() {
+        return saveObj;
+    }
+    public void setSaveObj(List&lt;#ENT_NAME#Save&gt; saveObj) {
+        this.saveObj = saveObj;
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_QUERY_IN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ApiModelProperty(value = "#COL_NAME_CN#")
+ private #COL_ENT_TYPE# #COL_NAME_LCC#;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  @ApiModelProperty(value = "#COL_NAME_CN#")
+@TableField("#COL_DB_NAME#")
+private #COL_ENT_TYPE# #COL_NAME_LCC#;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result column="#COL_DB_NAME#" property="#COL_NAME_LCC#" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import javax.validation.Valid;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.validation.annotation.Validated;
+import org.springframework.web.bind.annotation.PostMapping;
+import org.springframework.web.bind.annotation.RequestBody;
+import org.springframework.web.bind.annotation.RequestMapping;
+import org.springframework.web.bind.annotation.RequestMethod;
+import org.springframework.web.bind.annotation.RestController;
+import com.szlanyou.busicen.vehicle.pms.north.local.appservice.#ENT_NAME#Appservice;
+import com.szlanyou.busicen.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.busicen.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.busicen.vehicle.pms.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import io.swagger.annotations.Api;
+import io.swagger.annotations.ApiOperation;
+@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
+@RestController
+@RequestMapping(value = "/pms")
+@Validated
+public class #ENT_NAME#Controller {
+ @Autowired
+ #ENT_NAME#Appservice #ENT_NAME_LCC#Appservice;
+ @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
+ @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
+ public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(
+   @RequestBody(required = false) @Valid #ENT_NAME#Qry dataInfo) {
+  return #ENT_NAME_LCC#Appservice.ven#ENT_NAME#Query(dataInfo);
+ }
+ @ApiOperation(value = "保存#ENT_NAME_CN#", notes = "保存#ENT_NAME_CN#")
+ @PostMapping(value = "ven#ENT_NAME#Save")
+ public OptResult ven#ENT_NAME#Save(@RequestBody @Valid #ENT_NAME#SaveRequest dataInfo) {
+  return #ENT_NAME_LCC#Appservice.ven#ENT_NAME#Save(dataInfo);
+ }
+}</t>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import javax.validation.Valid;
+import org.springframework.beans.BeanUtils;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.stereotype.Service;
+import com.szlanyou.busicen.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.busicen.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#QueryLocalIn;
+import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#SaveLocalIn;
+import com.szlanyou.busicen.vehicle.pms.north.message.local.out.#ENT_NAME#LocalOut;
+import com.szlanyou.busicen.vehicle.pms.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.busicen.vehicle.pms.south.port.clients.#ENT_NAME#Clients;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import com.szlanyou.youcloud.core.util.LyListResultUtil;
+import com.szlanyou.youcloud.core.util.LyObjectUtil;
+@Service
+public class #ENT_NAME#Appservice {
+ @Autowired
+ private transient #ENT_NAME#Clients #ENT_NAME_LCC#Clients;
+ public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(@Valid #ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
+  #ENT_NAME#QueryLocalIn queryLocalIn = new #ENT_NAME#QueryLocalIn();
+  BeanUtils.copyProperties(#ENT_NAME_LCC#Qry, queryLocalIn);
+  ListResult&lt;#ENT_NAME#LocalOut&gt; result = #ENT_NAME_LCC#Clients.ven#ENT_NAME#Query(queryLocalIn);
+  return LyListResultUtil.convertTo(result, #ENT_NAME#Dto.class);
+ }
+ public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveRequest dataInfo) {
+  #ENT_NAME#SaveLocalIn saveLocalIn = LyObjectUtil.convertToByJSON(dataInfo,
+    #ENT_NAME#SaveLocalIn.class);
+  return dbOrderConfirmClients.ven#ENT_NAME#Save(saveLocalIn);
+ }
+}</t>
+  </si>
+  <si>
+    <t>vehicle\pms\domain\#ENT_NAME_LCC#\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#</t>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.stereotype.Service;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import com.szlanyou.vehicle.pms.south.adapter.clients.feignparam.FeignPrc;
+import com.szlanyou.vehicle.pms.south.adapter.clients.feignparam.FeignScm;
+import com.szlanyou.vehicle.pms.south.port.repositories.#ENT_NAME#Repositories;
+@Service
+public class #ENT_NAME#DomainService {
+    @Autowired
+    private transient #ENT_NAME#Repositories #ENT_NAME_LCC#Repositories;
+    public ListResult&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryDomainIn #ENT_NAME_LCC#QueryDomainIn) {
+     return #ENT_NAME_LCC#Repositories.ven#ENT_NAME#Query(#ENT_NAME_LCC#QueryDomainIn);
+    }
+    public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveDomainIn #ENT_NAME_LCC#SaveDomainIn) {
+        return #ENT_NAME_LCC#Repositories.ven#ENT_NAME#Save(#ENT_NAME_LCC#SaveDomainIn);
+    }
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package #PACK_PATH#;
+import org.springframework.beans.BeanUtils;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.stereotype.Service;
+import org.springframework.transaction.annotation.Transactional;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#DomainService;
+import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#QueryDomainIn;
+import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#SaveDomainIn;
+import com.szlanyou.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.vehicle.pms.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.youcloud.core.util.LyListResultUtil;
+import com.szlanyou.youcloud.core.util.LyObjectUtil;
+@Service
+public class #ENT_NAME#Service {
+    @Autowired
+    private transient #ENT_NAME#DomainService #ENT_NAME_LCC#DomainService;
+    public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(#ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
+     #ENT_NAME#QueryDomainIn #ENT_NAME_LCC#QueryDomainIn = new #ENT_NAME#QueryDomainIn();
+        BeanUtils.copyProperties(#ENT_NAME_LCC#Qry, #ENT_NAME_LCC#QueryDomainIn);
+        return LyListResultUtil.convertTo(#ENT_NAME_LCC#DomainService.ven#ENT_NAME_LCC#Query(#ENT_NAME_LCC#QueryDomainIn),
+          #ENT_NAME#Dto.class);
+    }
+    @Transactional(rollbackFor = Exception.class)
+    public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveRequest #ENT_NAME_LCC#SaveRequest) {
+     #ENT_NAME#SaveDomainIn #ENT_NAME_LCC#SaveDomainIn = LyObjectUtil.convertToByJSON(#ENT_NAME_LCC#SaveRequest,
+       #ENT_NAME#SaveDomainIn.class);
+        return #ENT_NAME_LCC#DomainService.ven#ENT_NAME#Save(#ENT_NAME_LCC#SaveDomainIn);
+    }
+}
+</t>
   </si>
   <si>
     <t xml:space="preserve">package #PACK_PATH#;
@@ -658,235 +1383,19 @@
 @RequestMapping(value = "/pmsBasics", produces = { MediaType.APPLICATION_JSON_VALUE })
 public class #ENT_NAME#Controller {
     @Autowired
-    private transient #ENT_NAME#Service #ENT_NAME_FL#Service;
+    private transient #ENT_NAME#Service #ENT_NAME_LCC#Service;
     @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
     @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
-    public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(@RequestBody @Valid #ENT_NAME#Qry #ENT_NAME_FL#Qry) {
-        return #ENT_NAME_FL#Service.ven#ENT_NAME#Query(#ENT_NAME_FL#Qry);
+    public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(@RequestBody @Valid #ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
+        return #ENT_NAME_LCC#Service.ven#ENT_NAME#Query(#ENT_NAME_LCC#Qry);
     }
     @ApiOperation(value = "保存#ENT_NAME_CN#", notes = "保存#ENT_NAME_CN#")
     @RequestMapping(value = "ven#ENT_NAME#Save", method = RequestMethod.POST)
-    public OptResult ven#ENT_NAME#Save(@RequestBody @Valid #ENT_NAME#SaveRequest #ENT_NAME_FL#SaveRequest) {
-        return #ENT_NAME_FL#Service.ven#ENT_NAME#Save(#ENT_NAME_FL#SaveRequest);
+    public OptResult ven#ENT_NAME#Save(@RequestBody @Valid #ENT_NAME#SaveRequest #ENT_NAME_LCC#SaveRequest) {
+        return #ENT_NAME_LCC#Service.ven#ENT_NAME#Save(#ENT_NAME_LCC#SaveRequest);
     }
 }
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ly-张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import java.util.Map;
-import org.apache.ibatis.annotations.Mapper;
-import org.apache.ibatis.annotations.Param;
-import com.baomidou.mybatisplus.core.mapper.BaseMapper;
-import com.szlanyou.vehicle.pms.south.infrastructure.entity.#ENT_NAME#;
-/**
- * &lt;p&gt;
- * #ENT_NAME_CN# Mapper 接口
- * &lt;/p&gt;
- *
- * @author #AUTHOR_DEV#
- * @since #DATE_NOW#
- */
-@Mapper
-public interface #ENT_NAME#Mapper extends BaseMapper&lt;#ENT_NAME#&gt; {
- List&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(@Param("param")Map&lt;String, Object&gt; map);
- int ven#ENT_NAME#Save(@Param("param")#ENT_NAME# param);
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库所有列名，以逗号分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITY_ID,CITY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import java.util.ArrayList;
-import java.util.List;
-import javax.validation.Valid;
-public class #ENT_NAME#SaveRequest {
-    @Valid
-    private List&lt;#ENT_NAME#Save&gt; saveObj= new ArrayList&lt;&gt;();
-    public List&lt;#ENT_NAME#Save&gt; getSaveObj() {
-        return saveObj;
-    }
-    public void setSaveObj(List&lt;#ENT_NAME#Save&gt; saveObj) {
-        this.saveObj = saveObj;
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import java.util.ArrayList;
-import java.util.List;
-import javax.validation.Valid;
-public class #ENT_NAME#SaveLocalIn {
-    @Valid
-    private List&lt;#ENT_NAME#SaveLocal&gt; saveObj = new ArrayList&lt;&gt;();
-    public List&lt;#ENT_NAME#SaveLocal&gt; getSaveObj() {
-        return saveObj;
-    }
-    public void setSaveObj(List&lt;#ENT_NAME#SaveLocal&gt; saveObj) {
-        this.saveObj = saveObj;
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import javax.validation.Valid;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.validation.annotation.Validated;
-import org.springframework.web.bind.annotation.PostMapping;
-import org.springframework.web.bind.annotation.RequestBody;
-import org.springframework.web.bind.annotation.RequestMapping;
-import org.springframework.web.bind.annotation.RequestMethod;
-import org.springframework.web.bind.annotation.RestController;
-import com.szlanyou.busicen.vehicle.pms.north.local.appservice.#ENT_NAME#Appservice;
-import com.szlanyou.busicen.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
-import com.szlanyou.busicen.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
-import com.szlanyou.busicen.vehicle.pms.north.message.query.#ENT_NAME#Qry;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-import io.swagger.annotations.Api;
-import io.swagger.annotations.ApiOperation;
-@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
-@RestController
-@RequestMapping(value = "/pms")
-@Validated
-public class #ENT_NAME#Controller {
- @Autowired
- #ENT_NAME#Appservice #ENT_NAME_FL#Appservice;
- @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
- @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
- public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(
-   @RequestBody(required = false) @Valid #ENT_NAME#Qry dataInfo) {
-  return #ENT_NAME_FL#Appservice.ven#ENT_NAME#Query(dataInfo);
- }
- @ApiOperation(value = "保存#ENT_NAME_CN#", notes = "保存#ENT_NAME_CN#")
- @PostMapping(value = "ven#ENT_NAME#Save")
- public OptResult ven#ENT_NAME#Save(@RequestBody @Valid #ENT_NAME#SaveRequest dataInfo) {
-  return #ENT_NAME_FL#Appservice.ven#ENT_NAME#Save(dataInfo);
- }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#QueryLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#SaveLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.out.#ENT_NAME#LocalOut;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-public interface #ENT_NAME#Clients {
- ListResult&lt;#ENT_NAME#LocalOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryLocalIn dataInfo);
- OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveLocalIn dataInfo);
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">package #PACK_PATH#;
-import java.util.ArrayList;
-import java.util.List;
-import javax.validation.Valid;
-public class #ENT_NAME#SaveDomainIn {
-    @Valid
-    private List&lt;#ENT_NAME#SaveDomain&gt; saveObj= new ArrayList&lt;&gt;();
-    public List&lt;#ENT_NAME#SaveDomain&gt; getSaveObj() {
-        return saveObj;
-    }
-    public void setSaveObj(List&lt;#ENT_NAME#SaveDomain&gt; saveObj) {
-        this.saveObj = saveObj;
-    }
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">package #PACK_PATH#;
-import org.springframework.beans.BeanUtils;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.stereotype.Service;
-import org.springframework.transaction.annotation.Transactional;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#DomainService;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#QueryDomainIn;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#SaveDomainIn;
-import com.szlanyou.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
-import com.szlanyou.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
-import com.szlanyou.vehicle.pms.north.message.query.#ENT_NAME#Qry;
-import com.szlanyou.youcloud.core.util.LyListResultUtil;
-import com.szlanyou.youcloud.core.util.LyObjectUtil;
-@Service
-public class #ENT_NAME#Service {
-    @Autowired
-    private transient #ENT_NAME#DomainService #ENT_NAME_FL#DomainService;
-    public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(#ENT_NAME#Qry #ENT_NAME_FL#Qry) {
-     #ENT_NAME#QueryDomainIn #ENT_NAME_FL#QueryDomainIn = new #ENT_NAME#QueryDomainIn();
-        BeanUtils.copyProperties(#ENT_NAME_FL#Qry, #ENT_NAME_FL#QueryDomainIn);
-        return LyListResultUtil.convertTo(#ENT_NAME_FL#DomainService.ven#ENT_NAME_FL#Query(#ENT_NAME_FL#QueryDomainIn),
-          #ENT_NAME#Dto.class);
-    }
-    @Transactional(rollbackFor = Exception.class)
-    public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveRequest #ENT_NAME_FL#SaveRequest) {
-     #ENT_NAME#SaveDomainIn #ENT_NAME_FL#SaveDomainIn = LyObjectUtil.convertToByJSON(#ENT_NAME_FL#SaveRequest,
-       #ENT_NAME#SaveDomainIn.class);
-        return #ENT_NAME_FL#DomainService.ven#ENT_NAME#Save(#ENT_NAME_FL#SaveDomainIn);
-    }
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB_City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库中的表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#QueryDomainIn;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#QueryDomainOut;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#SaveDomainIn;
-public interface #ENT_NAME#Repositories {
- ListResult&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryDomainIn #ENT_NAME_FL#QueryDomainIn);
- OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveDomainIn #ENT_NAME_FL#SaveDomainIn);
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PACK_MB_ENT#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PACK_QRY_DM_OUT#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PACK_MB_MAP#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">package #PACK_PATH#;
@@ -908,10 +1417,10 @@
 import com.szlanyou.cloud.mybatis.util.BusicenUtils;
 import com.szlanyou.cloud.uid.utils.LyIdUtils;
 import com.szlanyou.context.BusinessContext;
-import com.szlanyou.vehicle.pms.domain.#ENT_NAME_FL#.#ENT_NAME#QueryDomainIn;
-import com.szlanyou.vehicle.pms.domain.#ENT_NAME_FL#.#ENT_NAME#QueryDomainOut;
-import com.szlanyou.vehicle.pms.domain.#ENT_NAME_FL#.#ENT_NAME#SaveDomain;
-import com.szlanyou.vehicle.pms.domain.#ENT_NAME_FL#.#ENT_NAME#SaveDomainIn;
+import com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#.#ENT_NAME#QueryDomainIn;
+import com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#.#ENT_NAME#QueryDomainOut;
+import com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#.#ENT_NAME#SaveDomain;
+import com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#.#ENT_NAME#SaveDomainIn;
 import com.szlanyou.vehicle.pms.south.infrastructure.entity.#ENT_NAME#;
 import com.szlanyou.vehicle.pms.south.infrastructure.mapper.#ENT_NAME#Mapper;
 import com.szlanyou.vehicle.pms.south.port.repositories.#ENT_NAME#Repositories;
@@ -922,7 +1431,7 @@
 @Component
 public class #ENT_NAME#RepositoriesImpl extends ServiceImpl&lt;#ENT_NAME#Mapper, #ENT_NAME#&gt;  implements #ENT_NAME#Repositories {
  @Autowired
- #ENT_NAME#Mapper #ENT_NAME_FL#Mapper;
+ #ENT_NAME#Mapper #ENT_NAME_LCC#Mapper;
  @Override
  public ListResult&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryDomainIn inParam) {
         ListResult&lt;#ENT_NAME#&gt; result = new ListResult&lt;#ENT_NAME#&gt;();
@@ -940,13 +1449,13 @@
  public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveDomainIn inParam) {
   for(#ENT_NAME#SaveDomain saveEntity :inParam.getSaveObj()){
    //
-   #ENT_NAME# #ENT_NAME_FL# =new #ENT_NAME#();//数据库实体
-   BeanUtils.copyProperties(saveEntity, #ENT_NAME_FL#);
-   BusinessContext.copyCommon(#ENT_NAME_FL#);//复制通过属性
-   String keyId = #ENT_NAME_FL#.getId();
-   #ENT_NAME_FL#.setModifier(BusinessContext.getBusinessContext().getUserId());
-   #ENT_NAME_FL#.setModifierName(BusinessContext.getBusinessContext().getUserName());
-   #ENT_NAME_FL#.setLastUpdatedDate(LocalDateTime.now());
+   #ENT_NAME# #ENT_NAME_LCC# =new #ENT_NAME#();//数据库实体
+   BeanUtils.copyProperties(saveEntity, #ENT_NAME_LCC#);
+   BusinessContext.copyCommon(#ENT_NAME_LCC#);//复制通过属性
+   String keyId = #ENT_NAME_LCC#.getId();
+   #ENT_NAME_LCC#.setModifier(BusinessContext.getBusinessContext().getUserId());
+   #ENT_NAME_LCC#.setModifierName(BusinessContext.getBusinessContext().getUserName());
+   #ENT_NAME_LCC#.setLastUpdatedDate(LocalDateTime.now());
    if(StringUtils.isEmpty(keyId)) {
     // 判断品牌编码是否重复
     QueryWrapper&lt;#ENT_NAME#&gt; queryWrapper = new QueryWrapper&lt;#ENT_NAME#&gt;();
@@ -958,23 +1467,23 @@
     //查询品牌名称
     Map&lt;String,Object&gt; mapCond = new HashMap&lt;String,Object&gt;();
     mapCond.put("carBrandCode", saveEntity.getCarBrandCode());
-    #ENT_NAME_FL#.setCreator(BusinessContext.getBusinessContext().getUserId());
-    #ENT_NAME_FL#.setCreatorName(BusinessContext.getBusinessContext().getUserName());
-    #ENT_NAME_FL#.setCreatedDate(LocalDateTime.now());
-    //#ENT_NAME_FL#.setCarBrandCn(sBrandName);
-    #ENT_NAME_FL#.setId(LyIdUtils.genId());//不使用雪花算法ID？
-    #ENT_NAME_FL#.setUpdateControlId(LyIdUtils.genId());
+    #ENT_NAME_LCC#.setCreator(BusinessContext.getBusinessContext().getUserId());
+    #ENT_NAME_LCC#.setCreatorName(BusinessContext.getBusinessContext().getUserName());
+    #ENT_NAME_LCC#.setCreatedDate(LocalDateTime.now());
+    //#ENT_NAME_LCC#.setCarBrandCn(sBrandName);
+    #ENT_NAME_LCC#.setId(LyIdUtils.genId());//不使用雪花算法ID？
+    #ENT_NAME_LCC#.setUpdateControlId(LyIdUtils.genId());
     //保存数据
-    this.save(#ENT_NAME_FL#);
+    this.save(#ENT_NAME_LCC#);
    }else { 
     StringUtil.notEmptyTip(saveEntity.getUpdateControlId(), "并发控制ID不能为空！");  
     String updateControlId = saveEntity.getUpdateControlId();
     UpdateWrapper&lt;#ENT_NAME#&gt; userUpdateWrapper = new UpdateWrapper&lt;&gt;();
     userUpdateWrapper.lambda().eq(#ENT_NAME#::getId, keyId)
       .eq(#ENT_NAME#::getUpdateControlId, updateControlId);
-    #ENT_NAME_FL#.setUpdateControlId(LyIdUtils.genId());
+    #ENT_NAME_LCC#.setUpdateControlId(LyIdUtils.genId());
     //更新数据
-    int i = #ENT_NAME_FL#Mapper.update(#ENT_NAME_FL#, userUpdateWrapper);
+    int i = #ENT_NAME_LCC#Mapper.update(#ENT_NAME_LCC#, userUpdateWrapper);
     if(i==0) {
      throw BizException.newBizException("500", "并发操作，请刷新后重试");
     }
@@ -984,396 +1493,53 @@
  }
 }
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>package #PACK_PATH#;
-import java.io.Serializable;
-import javax.validation.constraints.NotBlank;
-import io.swagger.annotations.ApiModelProperty;
-public class #ENT_NAME#Qry implements Serializable {
- #COL_ENT_LIST#
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.stereotype.Component;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#QueryLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#SaveLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.out.#ENT_NAME#LocalOut;
-import com.szlanyou.busicen.vehicle.pms.south.port.clients.#ENT_NAME#Clients;
 import com.szlanyou.cloud.common.core.entities.ListResult;
 import com.szlanyou.cloud.common.core.entities.OptResult;
-@Component
-public class #ENT_NAME#Adapter implements #ENT_NAME#Clients {
- @Autowired
- FeignPmsAdapter feignPmsAdapter;
- @Override
- public ListResult&lt;#ENT_NAME#LocalOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryLocalIn dataInfo) {
-  ListResult&lt;#ENT_NAME#LocalOut&gt; result = feignPmsAdapter.ven#ENT_NAME#Query(dataInfo);
-  return result;
- }
- @Override
- public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveLocalIn dataInfo) {
-  return feignPmsAdapter.ven#ENT_NAME#Save(dataInfo);
- }
+import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#QueryDomainIn;
+import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#QueryDomainOut;
+import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#SaveDomainIn;
+public interface #ENT_NAME#Repositories {
+ ListResult&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryDomainIn #ENT_NAME_LCC#QueryDomainIn);
+ OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveDomainIn #ENT_NAME_LCC#SaveDomainIn);
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发语言类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\query\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\dto\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\local\in\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\local\in\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\local\out\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\local\appservice\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\south\port\clients\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\south\adapter\clients\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\local\appservices\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\message\dto\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\message\query\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\message\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\south\adapter\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\south\infrastructure\entity\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\south\infrastructure\mapper\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\south\port\repositories\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources\mybatis\mapper\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.message.query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.stereotype.Service;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.vehicle.pms.south.adapter.clients.feignparam.FeignPrc;
-import com.szlanyou.vehicle.pms.south.adapter.clients.feignparam.FeignScm;
-import com.szlanyou.vehicle.pms.south.port.repositories.#ENT_NAME#Repositories;
-@Service
-public class #ENT_NAME#DomainService {
-    @Autowired
-    private transient #ENT_NAME#Repositories #ENT_NAME_FL#Repositories;
-    public ListResult&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryDomainIn #ENT_NAME_FL#QueryDomainIn) {
-     return #ENT_NAME_FL#Repositories.ven#ENT_NAME#Query(#ENT_NAME_FL#QueryDomainIn);
-    }
-    public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveDomainIn #ENT_NAME_FL#SaveDomainIn) {
-        return #ENT_NAME_FL#Repositories.ven#ENT_NAME#Save(#ENT_NAME_FL#SaveDomainIn);
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.dto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.local.in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.local.out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\src\main\java\com\szlanyou\busicen\vehicle\pms\north\remote\controller\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.remote.controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.local.appservice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.south.port.clients</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.south.adapter.clients</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\domain\#ENT_NAME_FL#\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.domain.#ENT_NAME_FL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\domain\#ENT_NAME_FL#\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.local.appservices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.message.dto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\remote\controller\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.remote.controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.south.infrastructure.entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.south.infrastructure.mapper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.south.port.repositories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-  </si>
-  <si>
-    <t>配置</t>
-  </si>
-  <si>
-    <t>包名键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_SAVE_IN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import java.io.Serializable;
-import javax.validation.constraints.NotBlank;
-import io.swagger.annotations.ApiModelProperty;
-public class #ENT_NAME#Qry implements Serializable {
- #COL_QUERY_IN#
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import java.io.Serializable;
-import javax.validation.constraints.NotBlank;
-import com.szlanyou.youcloud.core.model.PageInfo;
-import io.swagger.annotations.ApiModelProperty;
-public class #ENT_NAME#Save extends PageInfo implements Serializable {
- private static final long serialVersionUID = 1L;
- #COL_SAVE_IN#
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_QUERY_OUT#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import io.swagger.annotations.ApiModelProperty;
-public class #ENT_NAME#Dto {
- #COL_QUERY_OUT#
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import java.io.Serializable;
-import javax.validation.constraints.NotBlank;
-import com.szlanyou.youcloud.core.model.PageInfo;
-import io.swagger.annotations.ApiModelProperty;
-public class #ENT_NAME#QueryLocalIn extends PageInfo implements Serializable {
- private static final long serialVersionUID = 1L;
- #COL_QUERY_IN#
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import io.swagger.annotations.ApiModelProperty;
-public class #ENT_NAME#LocalOut { 
- #COL_QUERY_OUT#
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import java.io.Serializable;
-import javax.validation.constraints.NotBlank;
-import com.szlanyou.youcloud.core.model.PageInfo;
-import io.swagger.annotations.ApiModelProperty;
-public class #ENT_NAME#SaveLocal extends PageInfo implements Serializable {
- private static final long serialVersionUID = 1L;
- #COL_SAVE_IN#
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import java.io.Serializable;
-import javax.validation.constraints.NotBlank;
-import com.szlanyou.youcloud.core.model.PageInfo;
-import io.swagger.annotations.ApiModelProperty;
-public class #ENT_NAME#QueryDomainIn extends PageInfo implements Serializable {
- #COL_QUERY_IN#
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import io.swagger.annotations.ApiModelProperty;
-public class #ENT_NAME#QueryDomainOut {
- #COL_QUERY_OUT#
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import java.io.Serializable;
-import javax.validation.constraints.NotBlank;
-import io.swagger.annotations.ApiModelProperty;
-public class #ENT_NAME#SaveDomain implements Serializable {
- private static final long serialVersionUID = 1L;
- #COL_SAVE_IN#
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">package #PACK_PATH#;
-import java.io.Serializable;
-import javax.validation.constraints.NotBlank;
-import io.swagger.annotations.ApiModelProperty;
-public class #ENT_NAME#Save implements Serializable {
- private static final long serialVersionUID = 1L;
- #COL_SAVE_IN#
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">package #PACK_PATH#;
-import java.util.ArrayList;
-import java.util.List;
-import javax.validation.Valid;
-public class #ENT_NAME#SaveRequest {
-    @Valid
-    private List&lt;#ENT_NAME#Save&gt; saveObj= new ArrayList&lt;&gt;();
-    public List&lt;#ENT_NAME#Save&gt; getSaveObj() {
-        return saveObj;
-    }
-    public void setSaveObj(List&lt;#ENT_NAME#Save&gt; saveObj) {
-        this.saveObj = saveObj;
-    }
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量内容</t>
+  </si>
+  <si>
+    <t>连接符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#DATE_NOW#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PACK_PATH#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xxx.xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TABLE_DB_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中的表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_City</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1381,23 +1547,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>大驼峰式实体名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME_CLASS#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大驼峰式实体类名（含前后缀）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME_LCC#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小驼峰式实体名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#ENT_NAME_CN#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME_FL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#DATE_NOW#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#TABLE_DB_NAME#</t>
+    <t>实名中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大驼峰式字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME_LCC#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小驼峰式字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME_CN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列名，我们一般使用下横线分隔单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CITY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_LEN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_TYPE#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列类型（不含长度或精度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_TYPE_LEN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的长度（含长度或精度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10),decimal(10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEC_BEG#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEC_END#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的小数位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_KEY#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的主外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK，FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NOT_NULL#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列是否非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是，0或空为否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEF_VAL#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字，字符或函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_EXT#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些值范围说明等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_ENT_TYPE#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1409,185 +1747,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  @ApiModelProperty(value = "#COL_NAME_CN#")
-@TableField("#COL_DB_NAME#")
-private #COL_ENT_TYPE# #COL_NAME_FL#;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mybatis实体关系定义中的列注解。针对主键列，会将@TableField替换为@TableId。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;result column="#COL_DB_NAME#" property="#COL_NAME_FL#" /&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mybatis中的配置文件中resultMap定义。针对主键列，会将&lt;result替换为&lt;id。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#COL_DB_NAME_ALL#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#COL_QUERY_IN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询结果用到的字段API说明，用于创建查询结果实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存用到的字段API说明，用于创建保存入参实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询用到的字段API说明，用于创建查询入参实体。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> @ApiModelProperty(value = "#COL_NAME_CN#")
- private #COL_ENT_TYPE# #COL_NAME_FL#;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_TEST#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变化类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#AUTHOR_DEV#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value = "#COL_NAME_CN#"+#AUTHOR_DEV#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME_FL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME_CN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_ENT_TYPE#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PACK_PATH#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import javax.validation.Valid;
-import org.springframework.beans.BeanUtils;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.stereotype.Service;
-import com.szlanyou.busicen.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
-import com.szlanyou.busicen.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#QueryLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#SaveLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.out.#ENT_NAME#LocalOut;
-import com.szlanyou.busicen.vehicle.pms.north.message.query.#ENT_NAME#Qry;
-import com.szlanyou.busicen.vehicle.pms.south.port.clients.#ENT_NAME#Clients;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.youcloud.core.util.LyListResultUtil;
-import com.szlanyou.youcloud.core.util.LyObjectUtil;
-@Service
-public class #ENT_NAME#Appservice {
- @Autowired
- private transient #ENT_NAME#Clients #ENT_NAME_FL#Clients;
- public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(@Valid #ENT_NAME#Qry #ENT_NAME_FL#Qry) {
-  #ENT_NAME#QueryLocalIn queryLocalIn = new #ENT_NAME#QueryLocalIn();
-  BeanUtils.copyProperties(#ENT_NAME_FL#Qry, queryLocalIn);
-  ListResult&lt;#ENT_NAME#LocalOut&gt; result = #ENT_NAME_FL#Clients.ven#ENT_NAME#Query(queryLocalIn);
-  return LyListResultUtil.convertTo(result, #ENT_NAME#Dto.class);
- }
- public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveRequest dataInfo) {
-  #ENT_NAME#SaveLocalIn saveLocalIn = LyObjectUtil.convertToByJSON(dataInfo,
-    #ENT_NAME#SaveLocalIn.class);
-  return dbOrderConfirmClients.ven#ENT_NAME#Save(saveLocalIn);
- }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> @ApiModelProperty(value = "#COL_NAME_CN#")
- private #COL_ENT_TYPE# #COL_NAME_FL#;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_MAP_NODE#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;!DOCTYPE mapper PUBLIC "-//mybatis.org//DTD Mapper 3.0//EN" "http://mybatis.org/dtd/mybatis-3-mapper.dtd"&gt;
-&lt;mapper namespace="#PACK_MB_MAP#"&gt;
-    &lt;!-- 通用查询映射结果 --&gt;
-    &lt;resultMap id="BaseResultMap" type="#PACK_MB_ENT#"&gt;
-        #COL_MAP_NODE#
-    &lt;/resultMap&gt;
-    &lt;!-- 通用查询结果列 --&gt;
-    &lt;sql id="Base_Column_List"&gt;
-       #COL_DB_NAME_ALL#
-    &lt;/sql&gt;
-    &lt;select id="ven#ENT_NAME#Query" resultType="#PACK_QRY_DM_OUT#"&gt;
-    &lt;/select&gt;
-    &lt;insert id="ven#ENT_NAME#Save"&gt;
-    &lt;/insert&gt;
-    &lt;update id="ven#ENT_NAME#Update"&gt;
-    &lt;/update&gt;
-&lt;/mapper&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_ENT_NOTE#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">package #PACK_PATH#;
-import java.io.Serializable;
-import java.time.LocalDateTime;
-import com.baomidou.mybatisplus.annotation.TableField;
-import com.baomidou.mybatisplus.annotation.TableId;
-import com.baomidou.mybatisplus.annotation.TableName;
-import io.swagger.annotations.ApiModel;
-import io.swagger.annotations.ApiModelProperty;
-/**
- * &lt;p&gt;
- * #ENT_NAME#实体对象
- * &lt;/p&gt;
- *
- * @author #AUTHOR_DEV#
- * @since #DATE_NOW#
- */
-@TableName("#TABLE_DB_NAME#")
-@ApiModel(value = "#ENT_NAME#对象", description = "#ENT_NAME_CN#")
-public class #ENT_NAME# implements Serializable {
-    private static final long serialVersionUID = 1L;
-    #COL_ENT_NOTE#
-}
-</t>
+    <t>数据库所有列名，以逗号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CITY_ID,CITY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_EXT#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1656,7 +1832,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1672,6 +1848,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,7 +1887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1731,7 +1913,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2040,8 +2228,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2052,24 +2240,24 @@
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.25" customWidth="1"/>
-    <col min="8" max="8" width="117" customWidth="1"/>
+    <col min="8" max="8" width="108.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -2086,13 +2274,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2100,7 +2288,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="162" x14ac:dyDescent="0.15">
@@ -2108,13 +2296,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2122,7 +2310,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="243" x14ac:dyDescent="0.15">
@@ -2130,13 +2318,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2144,7 +2332,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -2152,13 +2340,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2166,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
@@ -2174,13 +2362,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2188,7 +2376,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
@@ -2196,13 +2384,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2210,7 +2398,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="243" x14ac:dyDescent="0.15">
@@ -2218,13 +2406,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2232,7 +2420,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -2240,13 +2428,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2254,7 +2442,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -2262,13 +2450,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2276,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -2284,13 +2472,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2298,7 +2486,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="189" x14ac:dyDescent="0.15">
@@ -2306,13 +2494,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2320,7 +2508,7 @@
         <v>16</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="405" x14ac:dyDescent="0.15">
@@ -2328,13 +2516,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2342,7 +2530,7 @@
         <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="337.5" x14ac:dyDescent="0.15">
@@ -2350,13 +2538,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2364,7 +2552,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.15">
@@ -2372,13 +2560,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2386,7 +2574,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -2394,23 +2582,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="162" x14ac:dyDescent="0.15">
@@ -2418,13 +2606,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2432,7 +2620,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="256.5" x14ac:dyDescent="0.15">
@@ -2440,13 +2628,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2454,7 +2642,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -2462,13 +2650,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2476,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -2484,13 +2672,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2498,7 +2686,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
@@ -2506,13 +2694,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2520,7 +2708,7 @@
         <v>7</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
@@ -2528,13 +2716,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2542,7 +2730,7 @@
         <v>6</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="256.5" x14ac:dyDescent="0.15">
@@ -2550,13 +2738,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2564,7 +2752,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -2572,13 +2760,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2586,7 +2774,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -2594,13 +2782,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2608,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="378" x14ac:dyDescent="0.15">
@@ -2616,23 +2804,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="351" x14ac:dyDescent="0.15">
@@ -2640,37 +2828,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="202.5" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="216" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2678,7 +2866,7 @@
         <v>23</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="337.5" x14ac:dyDescent="0.15">
@@ -2686,10 +2874,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -2698,7 +2886,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2719,10 +2907,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2730,58 +2918,54 @@
     <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="65.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2791,6 +2975,438 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>2</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>2</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>2</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>2</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>2</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="10">
+        <v>2</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2809,18 +3425,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2828,282 +3444,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="73" style="2" customWidth="1"/>
-    <col min="4" max="4" width="80.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.875" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
-        <v>2</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件.xlsx
+++ b/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="类文件" sheetId="5" r:id="rId1"/>
+    <sheet name="代码模板" sheetId="5" r:id="rId1"/>
     <sheet name="自定义变量" sheetId="6" r:id="rId2"/>
     <sheet name="系统变量" sheetId="7" r:id="rId3"/>
     <sheet name="类型转换" sheetId="8" r:id="rId4"/>
@@ -329,7 +329,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-针对动态列的连接字符</t>
+针对动态列的连接字符。
+注：最后一列不会加上连接字符</t>
         </r>
       </text>
     </comment>
@@ -363,7 +364,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1固定值，2动态值。动态值表示会循环数据表的列进行拼接；固定值则不会</t>
+1固定值，2动态值。动态值表示会循环数据表的列进行拼接；固定值则不会。
+注：不可修改！！</t>
         </r>
       </text>
     </comment>
@@ -390,7 +392,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-注：该页签只提供系统已有的参数，可在【类文件】、【自定义变量中引用】</t>
+该页签只提供系统已有的参数，可在【类文件】、【自定义变量中引用】。
+注：不可增加和修改；如要增加自定参数，请到【自定义变量】页签！！</t>
         </r>
       </text>
     </comment>
@@ -462,11 +465,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-大驼峰式命名法（upper camel case）： 每一个单字的首字母都采用大写字母，例如：MyName</t>
+小驼峰式命名法（lower camel case）： 第一个单词以小写字母开始；第二个单词的首字母大写，例如：myName</t>
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="C24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -486,7 +489,103 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-小驼峰式命名法（lower camel case）： 第一个单词以小写字母开始；第二个单词的首字母大写，例如：myName</t>
+可修改模板内容</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可修改模板内容</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可修改模板内容</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可修改模板内容</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可修改模板内容</t>
         </r>
       </text>
     </comment>
@@ -531,7 +630,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="193">
   <si>
     <t>后缀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,10 +909,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>busicen\vehicle\pms\north\message\query\</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -908,10 +1003,6 @@
   <si>
     <t>com.szlanyou.busicen.vehicle.pms.north.message.local.out</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\src\main\java\com\szlanyou\busicen\vehicle\pms\north\remote\controller\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>com.szlanyou.busicen.vehicle.pms.north.remote.controller</t>
@@ -1207,12 +1298,6 @@
   <si>
     <t xml:space="preserve"> @ApiModelProperty(value = "#COL_NAME_CN#")
  private #COL_ENT_TYPE# #COL_NAME_LCC#;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  @ApiModelProperty(value = "#COL_NAME_CN#")
-@TableField("#COL_DB_NAME#")
-private #COL_ENT_TYPE# #COL_NAME_LCC#;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1507,264 +1592,274 @@
 }</t>
   </si>
   <si>
+    <t>#DATE_NOW#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PACK_PATH#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xxx.xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TABLE_DB_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中的表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大驼峰式实体名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME_LCC#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小驼峰式实体名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME_CN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大驼峰式字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME_LCC#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小驼峰式字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME_CN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列名，我们一般使用下横线分隔单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CITY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_LEN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_TYPE#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列类型（不含长度或精度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_TYPE_LEN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的长度（含长度或精度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10),decimal(10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEC_BEG#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEC_END#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的小数位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_KEY#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的主外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK，FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NOT_NULL#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列是否非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是，0或空为否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEF_VAL#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字，字符或函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_EXT#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些值范围说明等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_ENT_TYPE#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段的实体类型，根据【类型转换】页签来转换，默认为String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NAME_ALL#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库所有列名，以逗号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CITY_ID,CITY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_EXT#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ApiModelProperty(value = "#COL_NAME_CN#")
+@TableField("#COL_DB_NAME#")
+private #COL_ENT_TYPE# #COL_NAME_LCC#;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>连接符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#DATE_NOW#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PACK_PATH#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.xxx.xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#TABLE_DB_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库中的表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB_City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大驼峰式实体名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DbCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME_CLASS#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大驼峰式实体类名（含前后缀）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME_LCC#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小驼峰式实体名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME_CN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实名中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大驼峰式字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME_LCC#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小驼峰式字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME_CN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列名，我们一般使用下横线分隔单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_LEN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_TYPE#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列类型（不含长度或精度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_TYPE_LEN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的长度（含长度或精度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10),decimal(10,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_DEC_BEG#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的精度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_DEC_END#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的小数位数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_KEY#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的主外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK，FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_NOT_NULL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列是否非空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是，0或空为否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_DEF_VAL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字，字符或函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_EXT#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的备注信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些值范围说明等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_ENT_TYPE#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段的实体类型，根据【类型转换】页签来转换，默认为String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_NAME_ALL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库所有列名，以逗号分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITY_ID,CITY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实名说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_EXT#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>com.szlanyou.busicen.vehicle.pms.north.message.local.in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.pms.south.adapter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\busicen\vehicle\pms\north\remote\controller\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1853,7 +1948,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,7 +1982,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1916,11 +2011,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2228,8 +2326,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2254,10 +2352,10 @@
         <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -2274,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2288,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="162" x14ac:dyDescent="0.15">
@@ -2296,13 +2394,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2310,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="243" x14ac:dyDescent="0.15">
@@ -2318,13 +2416,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2340,13 +2438,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2354,7 +2452,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
@@ -2362,13 +2460,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2376,7 +2474,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
@@ -2384,13 +2482,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2398,7 +2496,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="243" x14ac:dyDescent="0.15">
@@ -2406,13 +2504,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2428,13 +2526,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2442,7 +2540,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -2450,13 +2548,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2464,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -2472,13 +2570,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2486,7 +2584,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="189" x14ac:dyDescent="0.15">
@@ -2494,13 +2592,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2516,13 +2614,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2538,13 +2636,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2552,7 +2650,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.15">
@@ -2560,13 +2658,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2574,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -2582,13 +2680,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>40</v>
@@ -2598,7 +2696,7 @@
         <v>12</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="162" x14ac:dyDescent="0.15">
@@ -2606,13 +2704,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2620,7 +2718,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="256.5" x14ac:dyDescent="0.15">
@@ -2628,13 +2726,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2650,13 +2748,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2664,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -2672,13 +2770,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2686,7 +2784,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
@@ -2694,13 +2792,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2708,7 +2806,7 @@
         <v>7</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
@@ -2716,13 +2814,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2730,7 +2828,7 @@
         <v>6</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="256.5" x14ac:dyDescent="0.15">
@@ -2738,13 +2836,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2752,7 +2850,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -2760,13 +2858,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2774,7 +2872,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -2782,13 +2880,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2796,7 +2894,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="378" x14ac:dyDescent="0.15">
@@ -2804,13 +2902,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>39</v>
@@ -2820,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="351" x14ac:dyDescent="0.15">
@@ -2828,13 +2926,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>41</v>
@@ -2852,13 +2950,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2866,7 +2964,7 @@
         <v>23</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="337.5" x14ac:dyDescent="0.15">
@@ -2874,10 +2972,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -2886,7 +2984,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +3008,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2925,16 +3023,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>27</v>
@@ -2948,12 +3046,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
@@ -2976,10 +3074,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2993,13 +3091,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>27</v>
@@ -3009,393 +3107,379 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="D4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="D5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="D6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="D7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B8" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="E9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="D14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+      <c r="D15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="B16" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="D17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="9">
         <v>2</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
+      <c r="E18" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="B19" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
+      <c r="D19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
         <v>2</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="B20" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+      <c r="B21" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
         <v>2</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="10">
+      <c r="B22" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
         <v>2</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
+      <c r="B23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
         <v>2</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+      <c r="B24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
         <v>2</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="10">
+      <c r="B25" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
         <v>2</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="10">
+      <c r="B26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
         <v>2</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="B27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="B28" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
-        <v>2</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3413,7 +3497,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件.xlsx
+++ b/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件.xlsx
@@ -1220,27 +1220,6 @@
   </si>
   <si>
     <t>#COL_MAP_NODE#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;!DOCTYPE mapper PUBLIC "-//mybatis.org//DTD Mapper 3.0//EN" "http://mybatis.org/dtd/mybatis-3-mapper.dtd"&gt;
-&lt;mapper namespace="#PACK_MB_MAP#"&gt;
-    &lt;!-- 通用查询映射结果 --&gt;
-    &lt;resultMap id="BaseResultMap" type="#PACK_MB_ENT#"&gt;
-        #COL_MAP_NODE#
-    &lt;/resultMap&gt;
-    &lt;!-- 通用查询结果列 --&gt;
-    &lt;sql id="Base_Column_List"&gt;
-       #COL_DB_NAME_ALL#
-    &lt;/sql&gt;
-    &lt;select id="ven#ENT_NAME#Query" resultType="#PACK_QRY_DM_OUT#"&gt;
-    &lt;/select&gt;
-    &lt;insert id="ven#ENT_NAME#Save"&gt;
-    &lt;/insert&gt;
-    &lt;update id="ven#ENT_NAME#Update"&gt;
-    &lt;/update&gt;
-&lt;/mapper&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1624,10 +1603,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#ENT_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大驼峰式实体名。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1860,6 +1835,31 @@
   <si>
     <t>\busicen\vehicle\pms\north\remote\controller\</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;!DOCTYPE mapper PUBLIC "-//mybatis.org//DTD Mapper 3.0//EN" "http://mybatis.org/dtd/mybatis-3-mapper.dtd"&gt;
+&lt;mapper namespace="#PACK_MB_MAP#"&gt;
+    &lt;!-- 通用查询映射结果 --&gt;
+    &lt;resultMap id="BaseResultMap" type="#PACK_MB_ENT#.#ENT_NAME#"&gt;
+        #COL_MAP_NODE#
+    &lt;/resultMap&gt;
+    &lt;!-- 通用查询结果列 --&gt;
+    &lt;sql id="Base_Column_List"&gt;
+       #COL_DB_NAME_ALL#
+    &lt;/sql&gt;
+    &lt;select id="ven#ENT_NAME#Query" resultType="#PACK_QRY_DM_OUT#.#ENT_NAME#QueryDomainOut"&gt;
+    &lt;/select&gt;
+    &lt;insert id="ven#ENT_NAME#Save"&gt;
+    &lt;/insert&gt;
+    &lt;update id="ven#ENT_NAME#Update"&gt;
+    &lt;/update&gt;
+&lt;/mapper&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2326,8 +2326,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2337,8 +2337,8 @@
     <col min="3" max="4" width="19.75" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.25" customWidth="1"/>
-    <col min="8" max="8" width="108.125" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="73.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2488,7 +2488,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2510,7 +2510,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2551,7 +2551,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>71</v>
@@ -2562,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -2584,7 +2584,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="189" x14ac:dyDescent="0.15">
@@ -2639,10 +2639,10 @@
         <v>84</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2650,7 +2650,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.15">
@@ -2661,10 +2661,10 @@
         <v>84</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2683,10 +2683,10 @@
         <v>84</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>40</v>
@@ -2707,10 +2707,10 @@
         <v>84</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2729,10 +2729,10 @@
         <v>84</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2762,7 +2762,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
@@ -2850,7 +2850,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -2872,7 +2872,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -2886,7 +2886,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2894,7 +2894,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="378" x14ac:dyDescent="0.15">
@@ -2918,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="351" x14ac:dyDescent="0.15">
@@ -2964,10 +2964,10 @@
         <v>23</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="337.5" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3015,7 +3015,7 @@
   <cols>
     <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
@@ -3032,7 +3032,7 @@
         <v>99</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>27</v>
@@ -3077,16 +3077,16 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="59.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -3111,10 +3111,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3122,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -3136,13 +3136,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3150,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3164,13 +3164,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -3178,13 +3178,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -3192,13 +3192,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3206,13 +3206,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -3220,13 +3220,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -3234,13 +3234,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3248,13 +3248,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -3262,10 +3262,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E13" s="9">
         <v>10</v>
@@ -3276,13 +3276,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -3290,13 +3290,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3304,10 +3304,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E16" s="9">
         <v>10</v>
@@ -3318,10 +3318,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E17" s="9">
         <v>2</v>
@@ -3332,13 +3332,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -3346,13 +3346,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -3360,13 +3360,13 @@
         <v>2</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -3374,13 +3374,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -3388,13 +3388,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -3402,13 +3402,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
@@ -3416,10 +3416,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>102</v>
@@ -3431,10 +3431,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>106</v>
@@ -3448,7 +3448,7 @@
         <v>90</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>104</v>
@@ -3462,7 +3462,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>105</v>
@@ -3476,7 +3476,7 @@
         <v>109</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>103</v>

--- a/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件.xlsx
+++ b/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="代码模板" sheetId="5" r:id="rId1"/>
@@ -421,7 +421,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+符合条件才拼接变量内容。单个条件格式：键,操作符,值。操作符包括：=,!=,&lt;&gt;。空值用null表示。
+注：目前只支持单个条件！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,6 +491,30 @@
           </rPr>
           <t xml:space="preserve">
 小驼峰式命名法（lower camel case）： 第一个单词以小写字母开始；第二个单词的首字母大写，例如：myName</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可修改模板内容</t>
         </r>
       </text>
     </comment>
@@ -542,30 +591,6 @@
       </text>
     </comment>
     <comment ref="C27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-可修改模板内容</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +655,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="195">
   <si>
     <t>后缀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1795,18 +1820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#COL_DB_NAME_ALL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库所有列名，以逗号分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITY_ID,CITY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实名说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1838,6 +1851,26 @@
   </si>
   <si>
     <t>#ENT_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"#COL_DB_NAME#"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逗号连接的所有列字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量内容条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_LIST_STR#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1850,7 +1883,7 @@
     &lt;/resultMap&gt;
     &lt;!-- 通用查询结果列 --&gt;
     &lt;sql id="Base_Column_List"&gt;
-       #COL_DB_NAME_ALL#
+       #COL_LIST_STR#
     &lt;/sql&gt;
     &lt;select id="ven#ENT_NAME#Query" resultType="#PACK_QRY_DM_OUT#.#ENT_NAME#QueryDomainOut"&gt;
     &lt;/select&gt;
@@ -2005,9 +2038,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2019,6 +2049,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2326,7 +2359,7 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -2455,7 +2488,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="189" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2477,7 +2510,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="189" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2488,7 +2521,7 @@
         <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2510,7 +2543,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2551,7 +2584,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>71</v>
@@ -2587,7 +2620,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2609,7 +2642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="405" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2631,7 +2664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="337.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2653,7 +2686,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2886,7 +2919,7 @@
         <v>60</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2921,7 +2954,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="351" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2945,7 +2978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="216" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="270" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2984,7 +3017,7 @@
         <v>24</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3008,7 +3041,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3032,7 +3065,7 @@
         <v>99</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>27</v>
@@ -3048,17 +3081,30 @@
       <c r="B2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" s="5"/>
@@ -3074,10 +3120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3085,11 +3131,12 @@
     <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="54.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>107</v>
       </c>
@@ -3100,385 +3147,379 @@
         <v>100</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>184</v>
+      <c r="B8" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="8">
         <v>2</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="11">
+        <v>1</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="11">
+        <v>1</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
+        <v>1</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
+        <v>1</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="B23" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+      <c r="B24" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="11">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+      <c r="B25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="11">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+      <c r="B26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="11">
         <v>2</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
-        <v>2</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="8">
-        <v>2</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
-        <v>2</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
-        <v>2</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8">
-        <v>2</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
-        <v>2</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="8">
-        <v>2</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="8">
-        <v>2</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="8">
-        <v>2</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
-        <v>2</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="8">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>87</v>
+      <c r="B27" s="11" t="s">
+        <v>109</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="8">
-        <v>2</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="2" t="s">
         <v>103</v>
       </c>
     </row>

--- a/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件.xlsx
+++ b/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="代码模板" sheetId="5" r:id="rId1"/>
@@ -655,7 +655,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="236">
   <si>
     <t>后缀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -790,28 +790,6 @@
   </si>
   <si>
     <t>需要修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import java.util.Map;
-import org.apache.ibatis.annotations.Mapper;
-import org.apache.ibatis.annotations.Param;
-import com.baomidou.mybatisplus.core.mapper.BaseMapper;
-import com.szlanyou.vehicle.pms.south.infrastructure.entity.#ENT_NAME#;
-/**
- * &lt;p&gt;
- * #ENT_NAME_CN# Mapper 接口
- * &lt;/p&gt;
- *
- * @author #AUTHOR_DEV#
- * @since #DATE_NOW#
- */
-@Mapper
-public interface #ENT_NAME#Mapper extends BaseMapper&lt;#ENT_NAME#&gt; {
- List&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(@Param("param")Map&lt;String, Object&gt; map);
- int ven#ENT_NAME#Save(@Param("param")#ENT_NAME# param);
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -845,19 +823,6 @@
     public void setSaveObj(List&lt;#ENT_NAME#SaveLocal&gt; saveObj) {
         this.saveObj = saveObj;
     }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>package #PACK_PATH#;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#QueryLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#SaveLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.out.#ENT_NAME#LocalOut;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-public interface #ENT_NAME#Clients {
- ListResult&lt;#ENT_NAME#LocalOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryLocalIn dataInfo);
- OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveLocalIn dataInfo);
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -892,32 +857,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>package #PACK_PATH#;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.stereotype.Component;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#QueryLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#SaveLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.out.#ENT_NAME#LocalOut;
-import com.szlanyou.busicen.vehicle.pms.south.port.clients.#ENT_NAME#Clients;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-@Component
-public class #ENT_NAME#Adapter implements #ENT_NAME#Clients {
- @Autowired
- FeignPmsAdapter feignPmsAdapter;
- @Override
- public ListResult&lt;#ENT_NAME#LocalOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryLocalIn dataInfo) {
-  ListResult&lt;#ENT_NAME#LocalOut&gt; result = feignPmsAdapter.ven#ENT_NAME#Query(dataInfo);
-  return result;
- }
- @Override
- public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveLocalIn dataInfo) {
-  return feignPmsAdapter.ven#ENT_NAME#Save(dataInfo);
- }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发语言类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -932,154 +871,10 @@
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\query\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\dto\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\local\in\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\local\in\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\message\local\out\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\north\local\appservice\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\south\port\clients\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>busicen\vehicle\pms\south\adapter\clients\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\local\appservices\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\message\dto\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\message\query\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\message\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\south\adapter\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\south\infrastructure\entity\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\south\infrastructure\mapper\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\south\port\repositories\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>resources\mybatis\mapper\</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.message.query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.dto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.local.in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.local.out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.remote.controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.local.appservice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.south.port.clients</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.south.adapter.clients</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.local.appservices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.message.dto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vehicle\pms\north\remote\controller\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.north.remote.controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.south.infrastructure.entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.south.infrastructure.mapper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.south.port.repositories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代码</t>
@@ -1309,82 +1104,357 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#DATE_NOW#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PACK_PATH#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xxx.xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TABLE_DB_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中的表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大驼峰式实体名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME_LCC#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小驼峰式实体名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME_CN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大驼峰式字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME_LCC#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小驼峰式字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME_CN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列名，我们一般使用下横线分隔单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CITY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_LEN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_TYPE#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列类型（不含长度或精度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_TYPE_LEN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的长度（含长度或精度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10),decimal(10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEC_BEG#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEC_END#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的小数位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_KEY#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的主外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK，FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NOT_NULL#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列是否非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是，0或空为否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEF_VAL#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字，字符或函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_EXT#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些值范围说明等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_ENT_TYPE#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段的实体类型，根据【类型转换】页签来转换，默认为String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_EXT#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ApiModelProperty(value = "#COL_NAME_CN#")
+@TableField("#COL_DB_NAME#")
+private #COL_ENT_TYPE# #COL_NAME_LCC#;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"#COL_DB_NAME#"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逗号连接的所有列字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量内容条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_LIST_STR#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
+&lt;!DOCTYPE mapper PUBLIC "-//mybatis.org//DTD Mapper 3.0//EN" "http://mybatis.org/dtd/mybatis-3-mapper.dtd"&gt;
+&lt;mapper namespace="#PACK_MB_MAP#"&gt;
+    &lt;!-- 通用查询映射结果 --&gt;
+    &lt;resultMap id="BaseResultMap" type="#PACK_MB_ENT#.#ENT_NAME#"&gt;
+        #COL_MAP_NODE#
+    &lt;/resultMap&gt;
+    &lt;!-- 通用查询结果列 --&gt;
+    &lt;sql id="Base_Column_List"&gt;
+       #COL_LIST_STR#
+    &lt;/sql&gt;
+    &lt;select id="ven#ENT_NAME#Query" resultType="#PACK_QRY_DM_OUT#.#ENT_NAME#QueryDomainOut"&gt;
+    &lt;/select&gt;
+    &lt;insert id="ven#ENT_NAME#Save"&gt;
+    &lt;/insert&gt;
+    &lt;update id="ven#ENT_NAME#Update"&gt;
+    &lt;/update&gt;
+&lt;/mapper&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.query</t>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\north\message\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message</t>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\north\message\dto\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.dto</t>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\north\message\local\in\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in</t>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\north\message\local\out\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.out</t>
+  </si>
+  <si>
+    <t>\busicen\vehicle\#MODULE_NAME#\north\remote\controller\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.remote.controller</t>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\north\local\appservice\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.local.appservice</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.south.port.clients</t>
+  </si>
+  <si>
     <t>package #PACK_PATH#;
-import javax.validation.Valid;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.validation.annotation.Validated;
-import org.springframework.web.bind.annotation.PostMapping;
-import org.springframework.web.bind.annotation.RequestBody;
-import org.springframework.web.bind.annotation.RequestMapping;
-import org.springframework.web.bind.annotation.RequestMethod;
-import org.springframework.web.bind.annotation.RestController;
-import com.szlanyou.busicen.vehicle.pms.north.local.appservice.#ENT_NAME#Appservice;
-import com.szlanyou.busicen.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
-import com.szlanyou.busicen.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
-import com.szlanyou.busicen.vehicle.pms.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in.#ENT_NAME#QueryLocalIn;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in.#ENT_NAME#SaveLocalIn;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.out.#ENT_NAME#LocalOut;
 import com.szlanyou.cloud.common.core.entities.ListResult;
 import com.szlanyou.cloud.common.core.entities.OptResult;
-import io.swagger.annotations.Api;
-import io.swagger.annotations.ApiOperation;
-@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
-@RestController
-@RequestMapping(value = "/pms")
-@Validated
-public class #ENT_NAME#Controller {
- @Autowired
- #ENT_NAME#Appservice #ENT_NAME_LCC#Appservice;
- @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
- @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
- public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(
-   @RequestBody(required = false) @Valid #ENT_NAME#Qry dataInfo) {
-  return #ENT_NAME_LCC#Appservice.ven#ENT_NAME#Query(dataInfo);
- }
- @ApiOperation(value = "保存#ENT_NAME_CN#", notes = "保存#ENT_NAME_CN#")
- @PostMapping(value = "ven#ENT_NAME#Save")
- public OptResult ven#ENT_NAME#Save(@RequestBody @Valid #ENT_NAME#SaveRequest dataInfo) {
-  return #ENT_NAME_LCC#Appservice.ven#ENT_NAME#Save(dataInfo);
- }
+public interface #ENT_NAME#Clients {
+ ListResult&lt;#ENT_NAME#LocalOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryLocalIn dataInfo);
+ OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveLocalIn dataInfo);
 }</t>
   </si>
   <si>
-    <t>package #PACK_PATH#;
-import javax.validation.Valid;
-import org.springframework.beans.BeanUtils;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.stereotype.Service;
-import com.szlanyou.busicen.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
-import com.szlanyou.busicen.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#QueryLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.in.#ENT_NAME#SaveLocalIn;
-import com.szlanyou.busicen.vehicle.pms.north.message.local.out.#ENT_NAME#LocalOut;
-import com.szlanyou.busicen.vehicle.pms.north.message.query.#ENT_NAME#Qry;
-import com.szlanyou.busicen.vehicle.pms.south.port.clients.#ENT_NAME#Clients;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.youcloud.core.util.LyListResultUtil;
-import com.szlanyou.youcloud.core.util.LyObjectUtil;
-@Service
-public class #ENT_NAME#Appservice {
- @Autowired
- private transient #ENT_NAME#Clients #ENT_NAME_LCC#Clients;
- public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(@Valid #ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
-  #ENT_NAME#QueryLocalIn queryLocalIn = new #ENT_NAME#QueryLocalIn();
-  BeanUtils.copyProperties(#ENT_NAME_LCC#Qry, queryLocalIn);
-  ListResult&lt;#ENT_NAME#LocalOut&gt; result = #ENT_NAME_LCC#Clients.ven#ENT_NAME#Query(queryLocalIn);
-  return LyListResultUtil.convertTo(result, #ENT_NAME#Dto.class);
- }
- public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveRequest dataInfo) {
-  #ENT_NAME#SaveLocalIn saveLocalIn = LyObjectUtil.convertToByJSON(dataInfo,
-    #ENT_NAME#SaveLocalIn.class);
-  return dbOrderConfirmClients.ven#ENT_NAME#Save(saveLocalIn);
- }
-}</t>
-  </si>
-  <si>
-    <t>vehicle\pms\domain\#ENT_NAME_LCC#\</t>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#</t>
+    <t>busicen\vehicle\#MODULE_NAME#\south\adapter\clients\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.busicen.vehicle.#MODULE_NAME#.south.adapter.clients</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\domain\#ENT_NAME_LCC#\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.domain.#ENT_NAME_LCC#</t>
   </si>
   <si>
     <t>package #PACK_PATH#;
@@ -1392,9 +1462,9 @@
 import org.springframework.stereotype.Service;
 import com.szlanyou.cloud.common.core.entities.ListResult;
 import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.vehicle.pms.south.adapter.clients.feignparam.FeignPrc;
-import com.szlanyou.vehicle.pms.south.adapter.clients.feignparam.FeignScm;
-import com.szlanyou.vehicle.pms.south.port.repositories.#ENT_NAME#Repositories;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.adapter.clients.feignparam.FeignPrc;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.adapter.clients.feignparam.FeignScm;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.port.repositories.#ENT_NAME#Repositories;
 @Service
 public class #ENT_NAME#DomainService {
     @Autowired
@@ -1408,83 +1478,40 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">package #PACK_PATH#;
-import org.springframework.beans.BeanUtils;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.stereotype.Service;
-import org.springframework.transaction.annotation.Transactional;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#DomainService;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#QueryDomainIn;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#SaveDomainIn;
-import com.szlanyou.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
-import com.szlanyou.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
-import com.szlanyou.vehicle.pms.north.message.query.#ENT_NAME#Qry;
-import com.szlanyou.youcloud.core.util.LyListResultUtil;
-import com.szlanyou.youcloud.core.util.LyObjectUtil;
-@Service
-public class #ENT_NAME#Service {
-    @Autowired
-    private transient #ENT_NAME#DomainService #ENT_NAME_LCC#DomainService;
-    public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(#ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
-     #ENT_NAME#QueryDomainIn #ENT_NAME_LCC#QueryDomainIn = new #ENT_NAME#QueryDomainIn();
-        BeanUtils.copyProperties(#ENT_NAME_LCC#Qry, #ENT_NAME_LCC#QueryDomainIn);
-        return LyListResultUtil.convertTo(#ENT_NAME_LCC#DomainService.ven#ENT_NAME_LCC#Query(#ENT_NAME_LCC#QueryDomainIn),
-          #ENT_NAME#Dto.class);
-    }
-    @Transactional(rollbackFor = Exception.class)
-    public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveRequest #ENT_NAME_LCC#SaveRequest) {
-     #ENT_NAME#SaveDomainIn #ENT_NAME_LCC#SaveDomainIn = LyObjectUtil.convertToByJSON(#ENT_NAME_LCC#SaveRequest,
-       #ENT_NAME#SaveDomainIn.class);
-        return #ENT_NAME_LCC#DomainService.ven#ENT_NAME#Save(#ENT_NAME_LCC#SaveDomainIn);
-    }
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">package #PACK_PATH#;
-import javax.validation.Valid;
-import org.springframework.beans.factory.annotation.Autowired;
-import org.springframework.http.MediaType;
-import org.springframework.web.bind.annotation.RequestBody;
-import org.springframework.web.bind.annotation.RequestMapping;
-import org.springframework.web.bind.annotation.RequestMethod;
-import org.springframework.web.bind.annotation.RestController;
-import com.szlanyou.cloud.common.core.entities.ListResult;
-import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.vehicle.pms.north.local.appservices.#ENT_NAME#Service;
-import com.szlanyou.vehicle.pms.north.message.#ENT_NAME#SaveRequest;
-import com.szlanyou.vehicle.pms.north.message.dto.#ENT_NAME#Dto;
-import com.szlanyou.vehicle.pms.north.message.query.#ENT_NAME#Qry;
-import io.swagger.annotations.Api;
-import io.swagger.annotations.ApiOperation;
-/**
- * &lt;p&gt;
- * #ENT_NAME_CN# 前端控制器
- * &lt;/p&gt;
- *
- * @author #AUTHOR_DEV#
- * @since #DATE_NOW#
- */
-@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
-@RestController
-@RequestMapping(value = "/pmsBasics", produces = { MediaType.APPLICATION_JSON_VALUE })
-public class #ENT_NAME#Controller {
-    @Autowired
-    private transient #ENT_NAME#Service #ENT_NAME_LCC#Service;
-    @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
-    @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
-    public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(@RequestBody @Valid #ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
-        return #ENT_NAME_LCC#Service.ven#ENT_NAME#Query(#ENT_NAME_LCC#Qry);
-    }
-    @ApiOperation(value = "保存#ENT_NAME_CN#", notes = "保存#ENT_NAME_CN#")
-    @RequestMapping(value = "ven#ENT_NAME#Save", method = RequestMethod.POST)
-    public OptResult ven#ENT_NAME#Save(@RequestBody @Valid #ENT_NAME#SaveRequest #ENT_NAME_LCC#SaveRequest) {
-        return #ENT_NAME_LCC#Service.ven#ENT_NAME#Save(#ENT_NAME_LCC#SaveRequest);
-    }
-}
-</t>
+    <t>vehicle\#MODULE_NAME#\north\local\appservices\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.north.local.appservices</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\north\message\dto\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.north.message.dto</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\north\message\query\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.north.message.query</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\north\message\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.north.message</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\north\remote\controller\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.north.remote.controller</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\south\adapter\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.south.adapter</t>
   </si>
   <si>
     <t xml:space="preserve">package #PACK_PATH#;
@@ -1506,14 +1533,14 @@
 import com.szlanyou.cloud.mybatis.util.BusicenUtils;
 import com.szlanyou.cloud.uid.utils.LyIdUtils;
 import com.szlanyou.context.BusinessContext;
-import com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#.#ENT_NAME#QueryDomainIn;
-import com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#.#ENT_NAME#QueryDomainOut;
-import com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#.#ENT_NAME#SaveDomain;
-import com.szlanyou.vehicle.pms.domain.#ENT_NAME_LCC#.#ENT_NAME#SaveDomainIn;
-import com.szlanyou.vehicle.pms.south.infrastructure.entity.#ENT_NAME#;
-import com.szlanyou.vehicle.pms.south.infrastructure.mapper.#ENT_NAME#Mapper;
-import com.szlanyou.vehicle.pms.south.port.repositories.#ENT_NAME#Repositories;
-import com.szlanyou.vehicle.pms.util.StringUtil;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.#ENT_NAME_LCC#.#ENT_NAME#QueryDomainIn;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.#ENT_NAME_LCC#.#ENT_NAME#QueryDomainOut;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.#ENT_NAME_LCC#.#ENT_NAME#SaveDomain;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.#ENT_NAME_LCC#.#ENT_NAME#SaveDomainIn;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.infrastructure.entity.#ENT_NAME#;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.infrastructure.mapper.#ENT_NAME#Mapper;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.port.repositories.#ENT_NAME#Repositories;
+import com.szlanyou.vehicle.#MODULE_NAME#.util.StringUtil;
 import com.szlanyou.youcloud.core.exception.BizException;
 import com.szlanyou.youcloud.core.util.LyListResultUtil;
 import com.szlanyou.youcloud.core.util.LyOptResultUtil;
@@ -1584,314 +1611,477 @@
 </t>
   </si>
   <si>
+    <t>vehicle\#MODULE_NAME#\south\infrastructure\entity\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.south.infrastructure.entity</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\south\infrastructure\mapper\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.south.infrastructure.mapper</t>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import java.util.Map;
+import org.apache.ibatis.annotations.Mapper;
+import org.apache.ibatis.annotations.Param;
+import com.baomidou.mybatisplus.core.mapper.BaseMapper;
+import com.szlanyou.vehicle.#MODULE_NAME#.south.infrastructure.entity.#ENT_NAME#;
+/**
+ * &lt;p&gt;
+ * #ENT_NAME_CN# Mapper 接口
+ * &lt;/p&gt;
+ *
+ * @author #AUTHOR_DEV#
+ * @since #DATE_NOW#
+ */
+@Mapper
+public interface #ENT_NAME#Mapper extends BaseMapper&lt;#ENT_NAME#&gt; {
+ List&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(@Param("param")Map&lt;String, Object&gt; map);
+ int ven#ENT_NAME#Save(@Param("param")#ENT_NAME# param);
+}</t>
+  </si>
+  <si>
+    <t>vehicle\#MODULE_NAME#\south\port\repositories\</t>
+  </si>
+  <si>
+    <t>com.szlanyou.vehicle.#MODULE_NAME#.south.port.repositories</t>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\north\message\query\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BUSICEN_QUERY_PATH#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BUSICEN_SAVE_PATH#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen-vehicle-oms-core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#BUSICEN_CORE_PATH#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#MODULE_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen-vehicle-oms-core-query-service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen-vehicle-oms-core-service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块名，用于Controller的前缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心代码(除Controller之外的类)的工程目录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅包含查询的Controller的工程目录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅包含保存的Controller的工程目录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-查询实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-保存实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-保存请求实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-DTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-查询LocalIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-保存Local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-保存LocalIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-查询LocalOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import javax.validation.Valid;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.validation.annotation.Validated;
+import org.springframework.web.bind.annotation.PostMapping;
+import org.springframework.web.bind.annotation.RequestBody;
+import org.springframework.web.bind.annotation.RequestMapping;
+import org.springframework.web.bind.annotation.RequestMethod;
+import org.springframework.web.bind.annotation.RestController;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.local.appservice.#ENT_NAME#Appservice;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import io.swagger.annotations.Api;
+import io.swagger.annotations.ApiOperation;
+@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
+@RestController
+@RequestMapping(value = "/#MODULE_NAME#")
+@Validated
+@CQRSKind(CQRSKindEnum.QUERY)
+public class #ENT_NAME#Controller {
+ @Autowired
+ #ENT_NAME#Appservice #ENT_NAME_LCC#Appservice;
+ @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
+ @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
+ public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(
+   @RequestBody(required = false) @Valid #ENT_NAME#Qry dataInfo) {
+  return #ENT_NAME_LCC#Appservice.ven#ENT_NAME#Query(dataInfo);
+ }
+ @ApiOperation(value = "保存#ENT_NAME_CN#", notes = "保存#ENT_NAME_CN#")
+ @PostMapping(value = "ven#ENT_NAME#Save")
+ public OptResult ven#ENT_NAME#Save(@RequestBody @Valid #ENT_NAME#SaveRequest dataInfo) {
+  return #ENT_NAME_LCC#Appservice.ven#ENT_NAME#Save(dataInfo);
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-查询Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-保存Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import javax.validation.Valid;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.validation.annotation.Validated;
+import org.springframework.web.bind.annotation.PostMapping;
+import org.springframework.web.bind.annotation.RequestBody;
+import org.springframework.web.bind.annotation.RequestMapping;
+import org.springframework.web.bind.annotation.RequestMethod;
+import org.springframework.web.bind.annotation.RestController;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.local.appservice.#ENT_NAME#Appservice;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import io.swagger.annotations.Api;
+import io.swagger.annotations.ApiOperation;
+@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
+@RestController
+@RequestMapping(value = "/#MODULE_NAME#")
+@Validated
+@CQRSKind(CQRSKindEnum.QUERY)
+public class #ENT_NAME#Controller {
+ @Autowired
+ #ENT_NAME#Appservice #ENT_NAME_LCC#Appservice;
+ @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
+ @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
+ public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(
+   @RequestBody(required = false) @Valid #ENT_NAME#Qry dataInfo) {
+  return #ENT_NAME_LCC#Appservice.ven#ENT_NAME#Query(dataInfo);
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import javax.validation.Valid;
+import org.springframework.beans.BeanUtils;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.stereotype.Service;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in.#ENT_NAME#QueryLocalIn;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in.#ENT_NAME#SaveLocalIn;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.out.#ENT_NAME#LocalOut;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.south.port.clients.#ENT_NAME#Clients;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import com.szlanyou.youcloud.core.util.LyListResultUtil;
+import com.szlanyou.youcloud.core.util.LyObjectUtil;
+@Service
+public class #ENT_NAME#Appservice {
+ @Autowired
+ private transient #ENT_NAME#Clients #ENT_NAME_LCC#Clients;
+ public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveRequest dataInfo) {
+  #ENT_NAME#SaveLocalIn saveLocalIn = LyObjectUtil.convertToByJSON(dataInfo,
+    #ENT_NAME#SaveLocalIn.class);
+  return dbOrderConfirmClients.ven#ENT_NAME#Save(saveLocalIn);
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>busicen\vehicle\#MODULE_NAME#\south\port\clients\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package #PACK_PATH#;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.stereotype.Component;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in.#ENT_NAME#QueryLocalIn;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.in.#ENT_NAME#SaveLocalIn;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.north.message.local.out.#ENT_NAME#LocalOut;
+import com.szlanyou.busicen.vehicle.#MODULE_NAME#.south.port.clients.#ENT_NAME#Clients;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+@Component
+public class #ENT_NAME#Adapter implements #ENT_NAME#Clients {
+ @Autowired
+ Feign#MODULE_NAME#Adapter feign#MODULE_NAME#Adapter;
+ @Override
+ public ListResult&lt;#ENT_NAME#LocalOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryLocalIn dataInfo) {
+  ListResult&lt;#ENT_NAME#LocalOut&gt; result = feign#MODULE_NAME#Adapter.ven#ENT_NAME#Query(dataInfo);
+  return result;
+ }
+ @Override
+ public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveLocalIn dataInfo) {
+  return feign#MODULE_NAME#Adapter.ven#ENT_NAME#Save(dataInfo);
+ }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-客户端接口层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层-客户端适配实现层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-领域服务层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-领域-查询In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-领域-查询Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-领域-保存In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-领域-保存实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">package #PACK_PATH#;
+import org.springframework.beans.BeanUtils;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.stereotype.Service;
+import org.springframework.transaction.annotation.Transactional;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.dbOrderConfirm.#ENT_NAME#DomainService;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.dbOrderConfirm.#ENT_NAME#QueryDomainIn;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.dbOrderConfirm.#ENT_NAME#SaveDomainIn;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.query.#ENT_NAME#Qry;
+import com.szlanyou.youcloud.core.util.LyListResultUtil;
+import com.szlanyou.youcloud.core.util.LyObjectUtil;
+@Service
+public class #ENT_NAME#Service {
+    @Autowired
+    private transient #ENT_NAME#DomainService #ENT_NAME_LCC#DomainService;
+    public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(#ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
+     #ENT_NAME#QueryDomainIn #ENT_NAME_LCC#QueryDomainIn = new #ENT_NAME#QueryDomainIn();
+        BeanUtils.copyProperties(#ENT_NAME_LCC#Qry, #ENT_NAME_LCC#QueryDomainIn);
+        return LyListResultUtil.convertTo(#ENT_NAME_LCC#DomainService.ven#ENT_NAME_LCC#Query(#ENT_NAME_LCC#QueryDomainIn),
+          #ENT_NAME#Dto.class);
+    }
+    @Transactional(rollbackFor = Exception.class)
+    public OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveRequest #ENT_NAME_LCC#SaveRequest) {
+     #ENT_NAME#SaveDomainIn #ENT_NAME_LCC#SaveDomainIn = LyObjectUtil.convertToByJSON(#ENT_NAME_LCC#SaveRequest,
+       #ENT_NAME#SaveDomainIn.class);
+        return #ENT_NAME_LCC#DomainService.ven#ENT_NAME#Save(#ENT_NAME_LCC#SaveDomainIn);
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-应用服务层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-查询DTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-查询Qry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-保存In-请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-保存In实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-控制器-查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-控制器-保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">package #PACK_PATH#;
+import javax.validation.Valid;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.http.MediaType;
+import org.springframework.web.bind.annotation.RequestBody;
+import org.springframework.web.bind.annotation.RequestMapping;
+import org.springframework.web.bind.annotation.RequestMethod;
+import org.springframework.web.bind.annotation.RestController;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.local.appservices.#ENT_NAME#Service;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.query.#ENT_NAME#Qry;
+import io.swagger.annotations.Api;
+import io.swagger.annotations.ApiOperation;
+/**
+ * &lt;p&gt;
+ * #ENT_NAME_CN# 前端控制器
+ * &lt;/p&gt;
+ *
+ * @author #AUTHOR_DEV#
+ * @since #DATE_NOW#
+ */
+@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
+@RestController
+@RequestMapping(value = "/#MODULE_NAME#Basics", produces = { MediaType.APPLICATION_JSON_VALUE })
+public class #ENT_NAME#Controller {
+    @Autowired
+    private transient #ENT_NAME#Service #ENT_NAME_LCC#Service;
+    @ApiOperation(value = "查询#ENT_NAME_CN#", notes = "查询#ENT_NAME_CN#")
+    @RequestMapping(value = "ven#ENT_NAME#Query", method = RequestMethod.POST)
+    public ListResult&lt;#ENT_NAME#Dto&gt; ven#ENT_NAME#Query(@RequestBody @Valid #ENT_NAME#Qry #ENT_NAME_LCC#Qry) {
+        return #ENT_NAME_LCC#Service.ven#ENT_NAME#Query(#ENT_NAME_LCC#Qry);
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">package #PACK_PATH#;
+import javax.validation.Valid;
+import org.springframework.beans.factory.annotation.Autowired;
+import org.springframework.http.MediaType;
+import org.springframework.web.bind.annotation.RequestBody;
+import org.springframework.web.bind.annotation.RequestMapping;
+import org.springframework.web.bind.annotation.RequestMethod;
+import org.springframework.web.bind.annotation.RestController;
+import com.szlanyou.cloud.common.core.entities.ListResult;
+import com.szlanyou.cloud.common.core.entities.OptResult;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.local.appservices.#ENT_NAME#Service;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.#ENT_NAME#SaveRequest;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.dto.#ENT_NAME#Dto;
+import com.szlanyou.vehicle.#MODULE_NAME#.north.message.query.#ENT_NAME#Qry;
+import io.swagger.annotations.Api;
+import io.swagger.annotations.ApiOperation;
+/**
+ * &lt;p&gt;
+ * #ENT_NAME_CN# 前端控制器
+ * &lt;/p&gt;
+ *
+ * @author #AUTHOR_DEV#
+ * @since #DATE_NOW#
+ */
+@Api(value = "#ENT_NAME_CN#", tags = { "#ENT_NAME_CN#" })
+@RestController
+@RequestMapping(value = "/#MODULE_NAME#Basics", produces = { MediaType.APPLICATION_JSON_VALUE })
+public class #ENT_NAME#Controller {
+    @Autowired
+    private transient #ENT_NAME#Service #ENT_NAME_LCC#Service;
+    @ApiOperation(value = "保存#ENT_NAME_CN#", notes = "保存#ENT_NAME_CN#")
+    @RequestMapping(value = "ven#ENT_NAME#Save", method = RequestMethod.POST)
+    public OptResult ven#ENT_NAME#Save(@RequestBody @Valid #ENT_NAME#SaveRequest #ENT_NAME_LCC#SaveRequest) {
+        return #ENT_NAME_LCC#Service.ven#ENT_NAME#Save(#ENT_NAME_LCC#SaveRequest);
+    }
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>package #PACK_PATH#;
 import com.szlanyou.cloud.common.core.entities.ListResult;
 import com.szlanyou.cloud.common.core.entities.OptResult;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#QueryDomainIn;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#QueryDomainOut;
-import com.szlanyou.vehicle.pms.domain.dbOrderConfirm.#ENT_NAME#SaveDomainIn;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.dbOrderConfirm.#ENT_NAME#QueryDomainIn;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.dbOrderConfirm.#ENT_NAME#QueryDomainOut;
+import com.szlanyou.vehicle.#MODULE_NAME#.domain.dbOrderConfirm.#ENT_NAME#SaveDomainIn;
 public interface #ENT_NAME#Repositories {
  ListResult&lt;#ENT_NAME#QueryDomainOut&gt; ven#ENT_NAME#Query(#ENT_NAME#QueryDomainIn #ENT_NAME_LCC#QueryDomainIn);
  OptResult ven#ENT_NAME#Save(#ENT_NAME#SaveDomainIn #ENT_NAME_LCC#SaveDomainIn);
 }</t>
-  </si>
-  <si>
-    <t>#DATE_NOW#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PACK_PATH#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.xxx.xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#TABLE_DB_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库中的表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB_City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大驼峰式实体名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DbCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME_LCC#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小驼峰式实体名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME_CN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实名中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大驼峰式字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME_LCC#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小驼峰式字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME_CN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列名，我们一般使用下横线分隔单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_LEN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_TYPE#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列类型（不含长度或精度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_TYPE_LEN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的长度（含长度或精度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10),decimal(10,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_DEC_BEG#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的精度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_DEC_END#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的小数位数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_KEY#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的主外键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK，FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_NOT_NULL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列是否非空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是，0或空为否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_DEF_VAL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字，字符或函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_EXT#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的备注信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些值范围说明等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_ENT_TYPE#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段的实体类型，根据【类型转换】页签来转换，默认为String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实名说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_EXT#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> @ApiModelProperty(value = "#COL_NAME_CN#")
-@TableField("#COL_DB_NAME#")
-private #COL_ENT_TYPE# #COL_NAME_LCC#;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.busicen.vehicle.pms.north.message.local.in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.szlanyou.vehicle.pms.south.adapter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\busicen\vehicle\pms\north\remote\controller\</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"#COL_DB_NAME#"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逗号连接的所有列字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量内容条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_LIST_STR#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;!DOCTYPE mapper PUBLIC "-//mybatis.org//DTD Mapper 3.0//EN" "http://mybatis.org/dtd/mybatis-3-mapper.dtd"&gt;
-&lt;mapper namespace="#PACK_MB_MAP#"&gt;
-    &lt;!-- 通用查询映射结果 --&gt;
-    &lt;resultMap id="BaseResultMap" type="#PACK_MB_ENT#.#ENT_NAME#"&gt;
-        #COL_MAP_NODE#
-    &lt;/resultMap&gt;
-    &lt;!-- 通用查询结果列 --&gt;
-    &lt;sql id="Base_Column_List"&gt;
-       #COL_LIST_STR#
-    &lt;/sql&gt;
-    &lt;select id="ven#ENT_NAME#Query" resultType="#PACK_QRY_DM_OUT#.#ENT_NAME#QueryDomainOut"&gt;
-    &lt;/select&gt;
-    &lt;insert id="ven#ENT_NAME#Save"&gt;
-    &lt;/insert&gt;
-    &lt;update id="ven#ENT_NAME#Update"&gt;
-    &lt;/update&gt;
-&lt;/mapper&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-数据库实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-Mapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-数据访问接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力层-SQL配置文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2357,10 +2547,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2372,23 +2562,24 @@
     <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="73.125" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -2399,19 +2590,22 @@
       <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="I1" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2419,21 +2613,24 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2441,21 +2638,24 @@
         <v>6</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -2463,21 +2663,24 @@
         <v>5</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2485,21 +2688,24 @@
         <v>8</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2507,21 +2713,24 @@
         <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="189" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="189" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2529,21 +2738,24 @@
         <v>20</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="243" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="243" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2551,21 +2763,24 @@
         <v>19</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2573,21 +2788,24 @@
         <v>18</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2595,429 +2813,539 @@
         <v>4</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="283.5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>212</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>119</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="162" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="256.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="121.5" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="256.5" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="378" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="364.5" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="270" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="378" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="364.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="364.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="H30" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="364.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4" t="s">
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>194</v>
+      <c r="H31" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3038,10 +3366,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3056,16 +3384,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>27</v>
@@ -3079,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>32</v>
@@ -3090,31 +3418,84 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
-        <v>2</v>
+      <c r="A3" s="2">
+        <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="11" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3122,7 +3503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3138,16 +3519,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>27</v>
@@ -3161,10 +3542,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -3172,13 +3553,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3186,13 +3567,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3200,13 +3581,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3214,13 +3595,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -3228,13 +3609,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -3242,13 +3623,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3256,13 +3637,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -3270,13 +3651,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -3284,13 +3665,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -3298,13 +3679,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -3312,10 +3693,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="F13" s="8">
         <v>10</v>
@@ -3326,13 +3707,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -3340,13 +3721,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -3354,10 +3735,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="F16" s="8">
         <v>10</v>
@@ -3368,10 +3749,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F17" s="8">
         <v>2</v>
@@ -3382,13 +3763,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -3396,13 +3777,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -3410,13 +3791,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -3424,13 +3805,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -3438,13 +3819,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -3452,14 +3833,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="5" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -3468,14 +3849,14 @@
         <v>2</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3483,14 +3864,14 @@
         <v>2</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="2" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
@@ -3498,14 +3879,14 @@
         <v>2</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="2" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -3513,14 +3894,14 @@
         <v>2</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +3934,7 @@
         <v>28</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
